--- a/data/trans_orig/P2A_lim_R-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P2A_lim_R-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C25947BB-5A82-4EB5-BC1A-3A64AB5FF945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8A8058F2-EFB0-4D4B-9268-53529E49B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{95785945-8254-439C-BE8C-AE5265709576}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{A91E2AE7-CFC8-40EF-934C-16A1FCB11178}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="688">
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2007 (Tasa respuesta: 100,0%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1556" uniqueCount="703">
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -95,7 +95,7 @@
     <t>1,68%</t>
   </si>
   <si>
-    <t>SÍ</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>4,22%</t>
@@ -125,7 +125,7 @@
     <t>5,89%</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>No</t>
   </si>
   <si>
     <t>95,16%</t>
@@ -701,10 +701,61 @@
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>—%</t>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>9,18%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>87,13%</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
   </si>
   <si>
     <t>0,4%</t>
@@ -815,1294 +866,1288 @@
     <t>92,73%</t>
   </si>
   <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>22,51%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>17,61%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>84,75%</t>
+  </si>
+  <si>
+    <t>77,49%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>82,57%</t>
+  </si>
+  <si>
+    <t>78,34%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>82,39%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>86,94%</t>
+  </si>
+  <si>
+    <t>82,13%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>92,64%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>0,09%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,21%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>97,23%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>95,05%</t>
+  </si>
+  <si>
+    <t>97,9%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>85,67%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>11,79%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>88,21%</t>
+  </si>
+  <si>
+    <t>83,2%</t>
+  </si>
+  <si>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>91,5%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen personas con alguna limitación (física, sensorial o psíquica) en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>82,36%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>18,84%</t>
+  </si>
+  <si>
+    <t>16,54%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,59%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>80,99%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
   </si>
   <si>
     <t>12,15%</t>
   </si>
   <si>
-    <t>17,96%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>14,51%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>82,04%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,49%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>22,51%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>17,61%</t>
-  </si>
-  <si>
-    <t>26,06%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>84,75%</t>
-  </si>
-  <si>
-    <t>77,49%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>82,57%</t>
-  </si>
-  <si>
-    <t>78,34%</t>
-  </si>
-  <si>
-    <t>73,94%</t>
-  </si>
-  <si>
-    <t>82,39%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>86,94%</t>
-  </si>
-  <si>
-    <t>82,13%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,77%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>92,64%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>0,09%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>99,17%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>97,23%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>95,05%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>85,67%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>87,13%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>11,79%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>88,21%</t>
-  </si>
-  <si>
-    <t>83,2%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>91,5%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>91,42%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen personas con alguna limitación en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>16,27%</t>
-  </si>
-  <si>
-    <t>14,41%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>17,9%</t>
-  </si>
-  <si>
-    <t>13,13%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>88,2%</t>
-  </si>
-  <si>
-    <t>83,73%</t>
-  </si>
-  <si>
-    <t>85,59%</t>
-  </si>
-  <si>
-    <t>82,1%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>86,87%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>19,7%</t>
-  </si>
-  <si>
-    <t>15,69%</t>
-  </si>
-  <si>
-    <t>24,06%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>22,15%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>79,59%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>83,81%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
-  </si>
-  <si>
-    <t>82,6%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,88%</t>
-  </si>
-  <si>
-    <t>10,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>78,62%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>83,58%</t>
-  </si>
-  <si>
-    <t>89,49%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>87,43%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,0%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>83,48%</t>
+  </si>
+  <si>
+    <t>78,99%</t>
+  </si>
+  <si>
+    <t>86,89%</t>
+  </si>
+  <si>
+    <t>83,66%</t>
+  </si>
+  <si>
+    <t>89,5%</t>
+  </si>
+  <si>
+    <t>85,27%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>87,58%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>83,72%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>24,68%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>29,02%</t>
+  </si>
+  <si>
+    <t>24,07%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>28,14%</t>
+  </si>
+  <si>
+    <t>24,38%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>75,32%</t>
+  </si>
+  <si>
+    <t>70,98%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>71,86%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>75,62%</t>
+  </si>
+  <si>
+    <t>72,16%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>38,11%</t>
+  </si>
+  <si>
+    <t>17,7%</t>
+  </si>
+  <si>
+    <t>70,69%</t>
+  </si>
+  <si>
+    <t>28,57%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>54,87%</t>
+  </si>
+  <si>
+    <t>83,19%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>61,63%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>70,76%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
   </si>
   <si>
     <t>94,02%</t>
   </si>
   <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,37%</t>
-  </si>
-  <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>87,51%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>29,41%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>27,97%</t>
-  </si>
-  <si>
-    <t>75,04%</t>
-  </si>
-  <si>
-    <t>70,59%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>56,87%</t>
-  </si>
-  <si>
-    <t>23,71%</t>
-  </si>
-  <si>
-    <t>16,7%</t>
-  </si>
-  <si>
-    <t>42,51%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>79,16%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>69,93%</t>
-  </si>
-  <si>
-    <t>42,6%</t>
-  </si>
-  <si>
-    <t>81,84%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
-  </si>
-  <si>
-    <t>57,2%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>19,96%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>84,41%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>95,2%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>33,17%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>81,06%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>86,13%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,11%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
   </si>
 </sst>
 </file>
@@ -2514,7 +2559,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA032B4E-0FF4-49C3-8BBB-34D16F8B5E5D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5F25CDE-B0B3-4169-B329-4A4C058040D9}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -4385,7 +4430,7 @@
         <v>2990</v>
       </c>
       <c r="D38" s="7">
-        <v>3049608</v>
+        <v>3049607</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>210</v>
@@ -4400,7 +4445,7 @@
         <v>3035</v>
       </c>
       <c r="I38" s="7">
-        <v>3103492</v>
+        <v>3103491</v>
       </c>
       <c r="J38" s="7" t="s">
         <v>213</v>
@@ -4415,7 +4460,7 @@
         <v>6025</v>
       </c>
       <c r="N38" s="7">
-        <v>6153098</v>
+        <v>6153099</v>
       </c>
       <c r="O38" s="7" t="s">
         <v>216</v>
@@ -4436,7 +4481,7 @@
         <v>3214</v>
       </c>
       <c r="D39" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -4451,7 +4496,7 @@
         <v>3297</v>
       </c>
       <c r="I39" s="7">
-        <v>3379198</v>
+        <v>3379197</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -4466,7 +4511,7 @@
         <v>6511</v>
       </c>
       <c r="N39" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
@@ -4504,7 +4549,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F2F36E9-4D1F-42B2-9FBF-032E4DF969E3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F877F0E-94FD-4FFC-95D8-4DDF479C5A1A}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4624,12 +4669,14 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>221</v>
@@ -4637,28 +4684,32 @@
       <c r="H4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="7"/>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>221</v>
+        <v>128</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>221</v>
+        <v>12</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>221</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,43 +4718,49 @@
         <v>18</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="7">
+        <v>37922</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>42</v>
+      </c>
+      <c r="I5" s="7">
+        <v>49646</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="N5" s="7">
+        <v>87568</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,43 +4769,49 @@
         <v>28</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>246</v>
+      </c>
+      <c r="D6" s="7">
+        <v>256816</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>214</v>
+      </c>
+      <c r="I6" s="7">
+        <v>237599</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>221</v>
+        <v>233</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>221</v>
+        <v>234</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>221</v>
+        <v>235</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>460</v>
+      </c>
+      <c r="N6" s="7">
+        <v>494415</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>221</v>
+        <v>236</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4757,43 +4820,49 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>282</v>
+      </c>
+      <c r="D7" s="7">
+        <v>294738</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>256</v>
+      </c>
+      <c r="I7" s="7">
+        <v>287245</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>538</v>
+      </c>
+      <c r="N7" s="7">
+        <v>581983</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,7 +4900,7 @@
         <v>40</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -4861,13 +4930,13 @@
         <v>50091</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="H9" s="7">
         <v>50</v>
@@ -4876,13 +4945,13 @@
         <v>54738</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="M9" s="7">
         <v>95</v>
@@ -4891,13 +4960,13 @@
         <v>104829</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4912,13 +4981,13 @@
         <v>455436</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="H10" s="7">
         <v>430</v>
@@ -4927,13 +4996,13 @@
         <v>469027</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="M10" s="7">
         <v>857</v>
@@ -4942,13 +5011,13 @@
         <v>924463</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,7 +5091,7 @@
         <v>40</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -5037,7 +5106,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -5067,13 +5136,13 @@
         <v>31281</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -5082,13 +5151,13 @@
         <v>32508</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -5097,13 +5166,13 @@
         <v>63789</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5118,13 +5187,13 @@
         <v>292765</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="H14" s="7">
         <v>286</v>
@@ -5133,13 +5202,13 @@
         <v>308512</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>236</v>
-      </c>
       <c r="L14" s="7" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="M14" s="7">
         <v>579</v>
@@ -5148,13 +5217,13 @@
         <v>601277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,7 +5297,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>153</v>
+        <v>275</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5243,7 +5312,7 @@
         <v>40</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>153</v>
+        <v>276</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -5258,7 +5327,7 @@
         <v>40</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5267,49 +5336,49 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="D17" s="7">
-        <v>64342</v>
+        <v>26420</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="H17" s="7">
-        <v>90</v>
+        <v>48</v>
       </c>
       <c r="I17" s="7">
-        <v>100905</v>
+        <v>51260</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="N17" s="7">
-        <v>165247</v>
+        <v>77680</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>266</v>
+        <v>282</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5318,49 +5387,49 @@
         <v>28</v>
       </c>
       <c r="C18" s="7">
-        <v>566</v>
+        <v>320</v>
       </c>
       <c r="D18" s="7">
-        <v>604378</v>
+        <v>347562</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>268</v>
+        <v>284</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>269</v>
+        <v>285</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>270</v>
+        <v>286</v>
       </c>
       <c r="H18" s="7">
-        <v>537</v>
+        <v>323</v>
       </c>
       <c r="I18" s="7">
-        <v>575291</v>
+        <v>337691</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>272</v>
+        <v>287</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>273</v>
+        <v>288</v>
       </c>
       <c r="M18" s="7">
-        <v>1103</v>
+        <v>643</v>
       </c>
       <c r="N18" s="7">
-        <v>1179669</v>
+        <v>685253</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>274</v>
+        <v>255</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>276</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5369,10 +5438,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>626</v>
+        <v>344</v>
       </c>
       <c r="D19" s="7">
-        <v>668720</v>
+        <v>373982</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -5384,10 +5453,10 @@
         <v>38</v>
       </c>
       <c r="H19" s="7">
-        <v>627</v>
+        <v>371</v>
       </c>
       <c r="I19" s="7">
-        <v>676196</v>
+        <v>388951</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -5399,10 +5468,10 @@
         <v>38</v>
       </c>
       <c r="M19" s="7">
-        <v>1253</v>
+        <v>715</v>
       </c>
       <c r="N19" s="7">
-        <v>1344916</v>
+        <v>762933</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -5434,7 +5503,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5449,7 +5518,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -5479,13 +5548,13 @@
         <v>44184</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="H21" s="7">
         <v>47</v>
@@ -5494,13 +5563,13 @@
         <v>49432</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="M21" s="7">
         <v>86</v>
@@ -5509,13 +5578,13 @@
         <v>93616</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>298</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5530,13 +5599,13 @@
         <v>168434</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="H22" s="7">
         <v>165</v>
@@ -5545,13 +5614,13 @@
         <v>170159</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>292</v>
+        <v>305</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="M22" s="7">
         <v>322</v>
@@ -5560,13 +5629,13 @@
         <v>338593</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5640,7 +5709,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5685,13 +5754,13 @@
         <v>21181</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="H25" s="7">
         <v>34</v>
@@ -5700,13 +5769,13 @@
         <v>36569</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>301</v>
+        <v>314</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>302</v>
+        <v>315</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="M25" s="7">
         <v>54</v>
@@ -5721,7 +5790,7 @@
         <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5736,13 +5805,13 @@
         <v>252800</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="H26" s="7">
         <v>235</v>
@@ -5751,13 +5820,13 @@
         <v>243462</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>310</v>
+        <v>323</v>
       </c>
       <c r="M26" s="7">
         <v>476</v>
@@ -5769,10 +5838,10 @@
         <v>59</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,7 +5909,7 @@
         <v>986</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>258</v>
+        <v>326</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>12</v>
@@ -5861,7 +5930,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="M28" s="7">
         <v>3</v>
@@ -5870,10 +5939,10 @@
         <v>2880</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="Q28" s="7" t="s">
         <v>63</v>
@@ -5891,13 +5960,13 @@
         <v>53473</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="H29" s="7">
         <v>57</v>
@@ -5906,7 +5975,7 @@
         <v>64105</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="K29" s="7" t="s">
         <v>155</v>
@@ -5924,10 +5993,10 @@
         <v>185</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5942,13 +6011,13 @@
         <v>608329</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="H30" s="7">
         <v>577</v>
@@ -5957,13 +6026,13 @@
         <v>627854</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="M30" s="7">
         <v>1145</v>
@@ -5972,13 +6041,13 @@
         <v>1236183</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6052,7 +6121,7 @@
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -6067,7 +6136,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>2</v>
@@ -6097,13 +6166,13 @@
         <v>61769</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="H33" s="7">
         <v>64</v>
@@ -6112,13 +6181,13 @@
         <v>71523</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="M33" s="7">
         <v>119</v>
@@ -6127,13 +6196,13 @@
         <v>133291</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="P33" s="7" t="s">
         <v>155</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -6148,13 +6217,13 @@
         <v>715148</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="H34" s="7">
         <v>693</v>
@@ -6163,13 +6232,13 @@
         <v>752330</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="M34" s="7">
         <v>1353</v>
@@ -6181,10 +6250,10 @@
         <v>61</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -6252,7 +6321,7 @@
         <v>3166</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>199</v>
@@ -6267,13 +6336,13 @@
         <v>1895</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="K36" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="M36" s="7">
         <v>5</v>
@@ -6282,7 +6351,7 @@
         <v>5061</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="P36" s="7" t="s">
         <v>199</v>
@@ -6303,13 +6372,13 @@
         <v>326322</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="H37" s="7">
         <v>373</v>
@@ -6318,13 +6387,13 @@
         <v>409780</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="M37" s="7">
         <v>667</v>
@@ -6333,13 +6402,13 @@
         <v>736101</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -6354,10 +6423,10 @@
         <v>3097291</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>268</v>
+        <v>374</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
       <c r="G38" s="7" t="s">
         <v>102</v>
@@ -6369,13 +6438,13 @@
         <v>3146635</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="M38" s="7">
         <v>5835</v>
@@ -6384,13 +6453,13 @@
         <v>6243926</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -6470,7 +6539,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9FA2FC2-4562-4587-8A43-F3D6036D2C90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0412BA98-DCD7-48CA-ADDB-59159A1DCF58}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6487,7 +6556,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6600,7 +6669,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -6615,7 +6684,7 @@
         <v>40</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -6630,7 +6699,7 @@
         <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6645,13 +6714,13 @@
         <v>23666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="H5" s="7">
         <v>33</v>
@@ -6660,13 +6729,13 @@
         <v>35718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="M5" s="7">
         <v>54</v>
@@ -6675,13 +6744,13 @@
         <v>59384</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6696,13 +6765,13 @@
         <v>270095</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
       <c r="H6" s="7">
         <v>244</v>
@@ -6711,13 +6780,13 @@
         <v>252985</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="M6" s="7">
         <v>489</v>
@@ -6726,13 +6795,13 @@
         <v>523080</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6803,10 +6872,10 @@
         <v>15</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>387</v>
+        <v>402</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>388</v>
+        <v>403</v>
       </c>
       <c r="H8" s="7">
         <v>5</v>
@@ -6815,13 +6884,13 @@
         <v>5091</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>42</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>389</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>15</v>
@@ -6833,10 +6902,10 @@
         <v>23</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6851,13 +6920,13 @@
         <v>19876</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="H9" s="7">
         <v>26</v>
@@ -6866,13 +6935,13 @@
         <v>28507</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>396</v>
+        <v>411</v>
       </c>
       <c r="M9" s="7">
         <v>45</v>
@@ -6881,10 +6950,10 @@
         <v>48383</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>397</v>
+        <v>412</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>398</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>111</v>
@@ -6902,13 +6971,13 @@
         <v>471537</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>399</v>
+        <v>414</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>401</v>
+        <v>416</v>
       </c>
       <c r="H10" s="7">
         <v>453</v>
@@ -6917,13 +6986,13 @@
         <v>489486</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>402</v>
+        <v>417</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>195</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>403</v>
+        <v>418</v>
       </c>
       <c r="M10" s="7">
         <v>899</v>
@@ -6932,13 +7001,13 @@
         <v>961022</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>405</v>
+        <v>420</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>406</v>
+        <v>421</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7027,7 +7096,7 @@
         <v>40</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -7042,7 +7111,7 @@
         <v>40</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>408</v>
+        <v>423</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7057,13 +7126,13 @@
         <v>6665</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="H13" s="7">
         <v>15</v>
@@ -7072,10 +7141,10 @@
         <v>15308</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>207</v>
@@ -7087,13 +7156,13 @@
         <v>21973</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>414</v>
+        <v>429</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>415</v>
+        <v>430</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>416</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7108,13 +7177,13 @@
         <v>311900</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>417</v>
+        <v>432</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>418</v>
+        <v>433</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>419</v>
+        <v>434</v>
       </c>
       <c r="H14" s="7">
         <v>317</v>
@@ -7123,13 +7192,13 @@
         <v>321001</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>420</v>
+        <v>435</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>421</v>
+        <v>436</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>422</v>
+        <v>437</v>
       </c>
       <c r="M14" s="7">
         <v>645</v>
@@ -7138,13 +7207,13 @@
         <v>632901</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>424</v>
+        <v>439</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>425</v>
+        <v>440</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,7 +7287,7 @@
         <v>40</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -7263,13 +7332,13 @@
         <v>39845</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>427</v>
+        <v>442</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>428</v>
+        <v>443</v>
       </c>
       <c r="H17" s="7">
         <v>45</v>
@@ -7278,13 +7347,13 @@
         <v>51890</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>429</v>
+        <v>444</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>430</v>
+        <v>445</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -7293,13 +7362,13 @@
         <v>91735</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>431</v>
+        <v>446</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>432</v>
+        <v>447</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7314,13 +7383,13 @@
         <v>330119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>434</v>
+        <v>449</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>435</v>
+        <v>450</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>386</v>
+        <v>401</v>
       </c>
       <c r="H18" s="7">
         <v>313</v>
@@ -7329,13 +7398,13 @@
         <v>335393</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>436</v>
+        <v>451</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>437</v>
+        <v>452</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="M18" s="7">
         <v>629</v>
@@ -7344,13 +7413,13 @@
         <v>665512</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>439</v>
+        <v>454</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>440</v>
+        <v>455</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,7 +7493,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -7439,7 +7508,7 @@
         <v>40</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>441</v>
+        <v>456</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -7454,7 +7523,7 @@
         <v>40</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>442</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7472,10 +7541,10 @@
         <v>51</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>443</v>
+        <v>458</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>444</v>
+        <v>222</v>
       </c>
       <c r="H21" s="7">
         <v>18</v>
@@ -7484,13 +7553,13 @@
         <v>18407</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>445</v>
+        <v>459</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>446</v>
+        <v>460</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>447</v>
+        <v>461</v>
       </c>
       <c r="M21" s="7">
         <v>36</v>
@@ -7499,13 +7568,13 @@
         <v>36253</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>448</v>
+        <v>462</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>450</v>
+        <v>464</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7523,10 +7592,10 @@
         <v>61</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>451</v>
+        <v>231</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>452</v>
+        <v>465</v>
       </c>
       <c r="H22" s="7">
         <v>205</v>
@@ -7535,13 +7604,13 @@
         <v>200180</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>453</v>
+        <v>466</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>454</v>
+        <v>467</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>455</v>
+        <v>468</v>
       </c>
       <c r="M22" s="7">
         <v>399</v>
@@ -7550,13 +7619,13 @@
         <v>393555</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>456</v>
+        <v>469</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>458</v>
+        <v>471</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7645,7 +7714,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -7675,13 +7744,13 @@
         <v>26957</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="F25" s="7" t="s">
         <v>201</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="H25" s="7">
         <v>29</v>
@@ -7690,13 +7759,13 @@
         <v>32213</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>461</v>
+        <v>474</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>462</v>
+        <v>282</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="M25" s="7">
         <v>55</v>
@@ -7705,13 +7774,13 @@
         <v>59170</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7726,10 +7795,10 @@
         <v>236166</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="G26" s="7" t="s">
         <v>189</v>
@@ -7741,10 +7810,10 @@
         <v>240902</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>30</v>
@@ -7756,13 +7825,13 @@
         <v>477068</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7830,13 +7899,13 @@
         <v>5564</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>173</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -7851,7 +7920,7 @@
         <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="M28" s="7">
         <v>7</v>
@@ -7860,13 +7929,13 @@
         <v>7519</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>476</v>
+        <v>275</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>478</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7881,13 +7950,13 @@
         <v>35366</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>479</v>
+        <v>490</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>480</v>
+        <v>491</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>481</v>
+        <v>492</v>
       </c>
       <c r="H29" s="7">
         <v>45</v>
@@ -7896,13 +7965,13 @@
         <v>51394</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>483</v>
+        <v>494</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>484</v>
+        <v>495</v>
       </c>
       <c r="M29" s="7">
         <v>77</v>
@@ -7911,13 +7980,13 @@
         <v>86760</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>485</v>
+        <v>496</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7932,13 +8001,13 @@
         <v>615628</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="H30" s="7">
         <v>599</v>
@@ -7947,13 +8016,13 @@
         <v>637945</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>492</v>
+        <v>503</v>
       </c>
       <c r="M30" s="7">
         <v>1142</v>
@@ -7962,13 +8031,13 @@
         <v>1253573</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>493</v>
+        <v>504</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>495</v>
+        <v>506</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,7 +8111,7 @@
         <v>40</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>496</v>
+        <v>507</v>
       </c>
       <c r="H32" s="7">
         <v>0</v>
@@ -8057,7 +8126,7 @@
         <v>40</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="M32" s="7">
         <v>0</v>
@@ -8090,10 +8159,10 @@
         <v>114</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>497</v>
+        <v>508</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="H33" s="7">
         <v>66</v>
@@ -8105,10 +8174,10 @@
         <v>206</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>498</v>
+        <v>509</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>300</v>
+        <v>313</v>
       </c>
       <c r="M33" s="7">
         <v>128</v>
@@ -8117,10 +8186,10 @@
         <v>142446</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>499</v>
+        <v>510</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>482</v>
+        <v>493</v>
       </c>
       <c r="Q33" s="7" t="s">
         <v>50</v>
@@ -8141,10 +8210,10 @@
         <v>123</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H34" s="7">
         <v>689</v>
@@ -8153,13 +8222,13 @@
         <v>751442</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>501</v>
+        <v>512</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>502</v>
+        <v>513</v>
       </c>
       <c r="M34" s="7">
         <v>1377</v>
@@ -8168,13 +8237,13 @@
         <v>1462304</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="P34" s="7" t="s">
         <v>59</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>503</v>
+        <v>514</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,13 +8311,13 @@
         <v>16727</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>504</v>
+        <v>515</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>153</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>505</v>
+        <v>516</v>
       </c>
       <c r="H36" s="7">
         <v>7</v>
@@ -8260,10 +8329,10 @@
         <v>43</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="M36" s="7">
         <v>22</v>
@@ -8275,10 +8344,10 @@
         <v>173</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,13 +8362,13 @@
         <v>237941</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>507</v>
+        <v>518</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>24</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="H37" s="7">
         <v>277</v>
@@ -8308,13 +8377,13 @@
         <v>308163</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>509</v>
+        <v>520</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>510</v>
+        <v>521</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>511</v>
+        <v>522</v>
       </c>
       <c r="M37" s="7">
         <v>500</v>
@@ -8323,13 +8392,13 @@
         <v>546104</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>512</v>
+        <v>523</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>514</v>
+        <v>525</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -8344,13 +8413,13 @@
         <v>3139682</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>515</v>
+        <v>526</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>500</v>
+        <v>511</v>
       </c>
       <c r="H38" s="7">
         <v>3054</v>
@@ -8359,10 +8428,10 @@
         <v>3229333</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>516</v>
+        <v>527</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>517</v>
+        <v>528</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>105</v>
@@ -8374,13 +8443,13 @@
         <v>6369015</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>518</v>
+        <v>529</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>270</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -8460,7 +8529,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6EA0190-32B0-4D10-82F8-8256CCD02CDD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C851B2B0-A002-46C5-BD21-AB384EF09A5D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8477,7 +8546,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -8590,7 +8659,7 @@
         <v>40</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>407</v>
+        <v>422</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -8620,7 +8689,7 @@
         <v>40</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -8632,46 +8701,46 @@
         <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>30712</v>
+        <v>34985</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>522</v>
+        <v>534</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="H5" s="7">
         <v>74</v>
       </c>
       <c r="I5" s="7">
-        <v>39121</v>
+        <v>40947</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>524</v>
+        <v>536</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>526</v>
+        <v>538</v>
       </c>
       <c r="M5" s="7">
         <v>113</v>
       </c>
       <c r="N5" s="7">
-        <v>69832</v>
+        <v>75932</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>540</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>528</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -8683,46 +8752,46 @@
         <v>292</v>
       </c>
       <c r="D6" s="7">
-        <v>229586</v>
+        <v>276458</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>529</v>
+        <v>542</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>530</v>
+        <v>543</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>341</v>
+        <v>544</v>
       </c>
       <c r="H6" s="7">
         <v>464</v>
       </c>
       <c r="I6" s="7">
-        <v>232282</v>
+        <v>248688</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>533</v>
+        <v>547</v>
       </c>
       <c r="M6" s="7">
         <v>756</v>
       </c>
       <c r="N6" s="7">
-        <v>461868</v>
+        <v>525145</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>535</v>
+        <v>549</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>345</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -8734,7 +8803,7 @@
         <v>331</v>
       </c>
       <c r="D7" s="7">
-        <v>260298</v>
+        <v>311443</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>38</v>
@@ -8749,7 +8818,7 @@
         <v>538</v>
       </c>
       <c r="I7" s="7">
-        <v>271403</v>
+        <v>289635</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>38</v>
@@ -8764,7 +8833,7 @@
         <v>869</v>
       </c>
       <c r="N7" s="7">
-        <v>531700</v>
+        <v>601077</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -8787,46 +8856,46 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>3695</v>
+        <v>3961</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>130</v>
+        <v>551</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>536</v>
+        <v>25</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
       </c>
       <c r="I8" s="7">
-        <v>2164</v>
+        <v>2057</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>176</v>
+        <v>239</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>200</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="M8" s="7">
         <v>4</v>
       </c>
       <c r="N8" s="7">
-        <v>5859</v>
+        <v>6018</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>16</v>
+        <v>422</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>200</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -8838,46 +8907,46 @@
         <v>83</v>
       </c>
       <c r="D9" s="7">
-        <v>102276</v>
+        <v>98843</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
       <c r="H9" s="7">
         <v>151</v>
       </c>
       <c r="I9" s="7">
-        <v>104181</v>
+        <v>95835</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="M9" s="7">
         <v>234</v>
       </c>
       <c r="N9" s="7">
-        <v>206458</v>
+        <v>194678</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -8889,46 +8958,46 @@
         <v>298</v>
       </c>
       <c r="D10" s="7">
-        <v>413325</v>
+        <v>415586</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="H10" s="7">
         <v>563</v>
       </c>
       <c r="I10" s="7">
-        <v>448221</v>
+        <v>417076</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="M10" s="7">
         <v>861</v>
       </c>
       <c r="N10" s="7">
-        <v>861547</v>
+        <v>832663</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -8940,7 +9009,7 @@
         <v>382</v>
       </c>
       <c r="D11" s="7">
-        <v>519297</v>
+        <v>518390</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>38</v>
@@ -8955,7 +9024,7 @@
         <v>717</v>
       </c>
       <c r="I11" s="7">
-        <v>554566</v>
+        <v>514969</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>38</v>
@@ -8970,7 +9039,7 @@
         <v>1099</v>
       </c>
       <c r="N11" s="7">
-        <v>1073864</v>
+        <v>1033359</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>38</v>
@@ -8993,16 +9062,16 @@
         <v>1</v>
       </c>
       <c r="D12" s="7">
-        <v>959</v>
+        <v>914</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>64</v>
+        <v>423</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -9023,7 +9092,7 @@
         <v>1</v>
       </c>
       <c r="N12" s="7">
-        <v>959</v>
+        <v>914</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>197</v>
@@ -9032,7 +9101,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -9044,46 +9113,46 @@
         <v>66</v>
       </c>
       <c r="D13" s="7">
-        <v>53150</v>
+        <v>51309</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>304</v>
+        <v>575</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>560</v>
+        <v>576</v>
       </c>
       <c r="H13" s="7">
         <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>49307</v>
+        <v>45768</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>228</v>
+        <v>577</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>561</v>
+        <v>578</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>562</v>
+        <v>579</v>
       </c>
       <c r="M13" s="7">
         <v>141</v>
       </c>
       <c r="N13" s="7">
-        <v>102457</v>
+        <v>97077</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>563</v>
+        <v>580</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>564</v>
+        <v>581</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>565</v>
+        <v>582</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -9095,46 +9164,46 @@
         <v>293</v>
       </c>
       <c r="D14" s="7">
-        <v>268131</v>
+        <v>263827</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>567</v>
+        <v>584</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>568</v>
+        <v>54</v>
       </c>
       <c r="H14" s="7">
         <v>461</v>
       </c>
       <c r="I14" s="7">
-        <v>323977</v>
+        <v>303360</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>236</v>
+        <v>585</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>569</v>
+        <v>586</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>570</v>
+        <v>587</v>
       </c>
       <c r="M14" s="7">
         <v>754</v>
       </c>
       <c r="N14" s="7">
-        <v>592108</v>
+        <v>567187</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>588</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>571</v>
+        <v>589</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>572</v>
+        <v>590</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -9146,7 +9215,7 @@
         <v>360</v>
       </c>
       <c r="D15" s="7">
-        <v>322240</v>
+        <v>316050</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>38</v>
@@ -9161,7 +9230,7 @@
         <v>536</v>
       </c>
       <c r="I15" s="7">
-        <v>373284</v>
+        <v>349128</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>38</v>
@@ -9176,7 +9245,7 @@
         <v>896</v>
       </c>
       <c r="N15" s="7">
-        <v>695524</v>
+        <v>665178</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>38</v>
@@ -9199,16 +9268,16 @@
         <v>2</v>
       </c>
       <c r="D16" s="7">
-        <v>2347</v>
+        <v>2289</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>20</v>
+        <v>86</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -9229,16 +9298,16 @@
         <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>2347</v>
+        <v>2289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>153</v>
+        <v>423</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>177</v>
+        <v>591</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -9250,46 +9319,46 @@
         <v>26</v>
       </c>
       <c r="D17" s="7">
-        <v>26341</v>
+        <v>25220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>573</v>
+        <v>330</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>574</v>
+        <v>592</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>575</v>
+        <v>593</v>
       </c>
       <c r="H17" s="7">
         <v>53</v>
       </c>
       <c r="I17" s="7">
-        <v>29297</v>
+        <v>26994</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>576</v>
+        <v>138</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>577</v>
+        <v>594</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>578</v>
+        <v>459</v>
       </c>
       <c r="M17" s="7">
         <v>79</v>
       </c>
       <c r="N17" s="7">
-        <v>55639</v>
+        <v>52214</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>21</v>
+        <v>595</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>579</v>
+        <v>596</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>44</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -9301,46 +9370,46 @@
         <v>264</v>
       </c>
       <c r="D18" s="7">
-        <v>293551</v>
+        <v>285047</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>580</v>
+        <v>598</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>581</v>
+        <v>599</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>582</v>
+        <v>600</v>
       </c>
       <c r="H18" s="7">
         <v>546</v>
       </c>
       <c r="I18" s="7">
-        <v>399259</v>
+        <v>448724</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>583</v>
+        <v>146</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>584</v>
+        <v>466</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>585</v>
+        <v>601</v>
       </c>
       <c r="M18" s="7">
         <v>810</v>
       </c>
       <c r="N18" s="7">
-        <v>692810</v>
+        <v>733770</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>490</v>
+        <v>602</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>586</v>
+        <v>165</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>587</v>
+        <v>603</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -9352,7 +9421,7 @@
         <v>292</v>
       </c>
       <c r="D19" s="7">
-        <v>322240</v>
+        <v>312557</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>38</v>
@@ -9367,7 +9436,7 @@
         <v>599</v>
       </c>
       <c r="I19" s="7">
-        <v>428556</v>
+        <v>475718</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>38</v>
@@ -9382,7 +9451,7 @@
         <v>891</v>
       </c>
       <c r="N19" s="7">
-        <v>750796</v>
+        <v>788274</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>38</v>
@@ -9405,46 +9474,46 @@
         <v>7</v>
       </c>
       <c r="D20" s="7">
-        <v>6853</v>
+        <v>6072</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>588</v>
+        <v>604</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>589</v>
+        <v>605</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>21</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>23</v>
       </c>
       <c r="I20" s="7">
-        <v>9942</v>
+        <v>9077</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>590</v>
+        <v>606</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>591</v>
+        <v>607</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="M20" s="7">
         <v>30</v>
       </c>
       <c r="N20" s="7">
-        <v>16794</v>
+        <v>15150</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>395</v>
+        <v>609</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>593</v>
+        <v>610</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>594</v>
+        <v>611</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -9456,46 +9525,46 @@
         <v>25</v>
       </c>
       <c r="D21" s="7">
-        <v>15837</v>
+        <v>14303</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>595</v>
+        <v>612</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>596</v>
+        <v>613</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>597</v>
+        <v>474</v>
       </c>
       <c r="H21" s="7">
         <v>58</v>
       </c>
       <c r="I21" s="7">
-        <v>24347</v>
+        <v>22040</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>157</v>
+        <v>614</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>598</v>
+        <v>615</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="M21" s="7">
         <v>83</v>
       </c>
       <c r="N21" s="7">
-        <v>40183</v>
+        <v>36343</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>600</v>
+        <v>617</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>601</v>
+        <v>618</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>602</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -9507,46 +9576,46 @@
         <v>247</v>
       </c>
       <c r="D22" s="7">
-        <v>174059</v>
+        <v>158367</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>603</v>
+        <v>620</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>604</v>
+        <v>621</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>213</v>
+        <v>622</v>
       </c>
       <c r="H22" s="7">
         <v>414</v>
       </c>
       <c r="I22" s="7">
-        <v>225225</v>
+        <v>227662</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>236</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>605</v>
+        <v>623</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>606</v>
+        <v>417</v>
       </c>
       <c r="M22" s="7">
         <v>661</v>
       </c>
       <c r="N22" s="7">
-        <v>399282</v>
+        <v>386028</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>607</v>
+        <v>624</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>608</v>
+        <v>625</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -9558,7 +9627,7 @@
         <v>279</v>
       </c>
       <c r="D23" s="7">
-        <v>196748</v>
+        <v>178742</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>38</v>
@@ -9573,7 +9642,7 @@
         <v>495</v>
       </c>
       <c r="I23" s="7">
-        <v>259513</v>
+        <v>258779</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>38</v>
@@ -9588,7 +9657,7 @@
         <v>774</v>
       </c>
       <c r="N23" s="7">
-        <v>456260</v>
+        <v>437521</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>38</v>
@@ -9620,7 +9689,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>610</v>
+        <v>276</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -9635,7 +9704,7 @@
         <v>40</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -9650,7 +9719,7 @@
         <v>40</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>477</v>
+        <v>488</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -9662,46 +9731,46 @@
         <v>104</v>
       </c>
       <c r="D25" s="7">
-        <v>69189</v>
+        <v>66533</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="H25" s="7">
         <v>121</v>
       </c>
       <c r="I25" s="7">
-        <v>66628</v>
+        <v>61876</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="M25" s="7">
         <v>225</v>
       </c>
       <c r="N25" s="7">
-        <v>135817</v>
+        <v>128409</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -9713,46 +9782,46 @@
         <v>267</v>
       </c>
       <c r="D26" s="7">
-        <v>208034</v>
+        <v>203103</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
       <c r="H26" s="7">
         <v>339</v>
       </c>
       <c r="I26" s="7">
-        <v>208994</v>
+        <v>195180</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
       <c r="M26" s="7">
         <v>606</v>
       </c>
       <c r="N26" s="7">
-        <v>417028</v>
+        <v>398283</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -9764,7 +9833,7 @@
         <v>371</v>
       </c>
       <c r="D27" s="7">
-        <v>277223</v>
+        <v>269636</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>38</v>
@@ -9779,7 +9848,7 @@
         <v>460</v>
       </c>
       <c r="I27" s="7">
-        <v>275622</v>
+        <v>257056</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>38</v>
@@ -9794,7 +9863,7 @@
         <v>831</v>
       </c>
       <c r="N27" s="7">
-        <v>552845</v>
+        <v>526692</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>38</v>
@@ -9817,46 +9886,46 @@
         <v>9</v>
       </c>
       <c r="D28" s="7">
-        <v>7816</v>
+        <v>7665</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>87</v>
+        <v>515</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
       <c r="H28" s="7">
         <v>3</v>
       </c>
       <c r="I28" s="7">
-        <v>2325</v>
+        <v>2223</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>408</v>
+        <v>507</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>315</v>
+        <v>12</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>632</v>
+        <v>647</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
       </c>
       <c r="N28" s="7">
-        <v>10141</v>
+        <v>9888</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>130</v>
+        <v>648</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>633</v>
+        <v>649</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -9868,46 +9937,46 @@
         <v>104</v>
       </c>
       <c r="D29" s="7">
-        <v>99964</v>
+        <v>97267</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>528</v>
+        <v>650</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>113</v>
+        <v>651</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>634</v>
+        <v>652</v>
       </c>
       <c r="H29" s="7">
         <v>198</v>
       </c>
       <c r="I29" s="7">
-        <v>239531</v>
+        <v>323676</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>635</v>
+        <v>653</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>636</v>
+        <v>654</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>637</v>
+        <v>655</v>
       </c>
       <c r="M29" s="7">
         <v>302</v>
       </c>
       <c r="N29" s="7">
-        <v>339495</v>
+        <v>420943</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>638</v>
+        <v>656</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>639</v>
+        <v>657</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>640</v>
+        <v>658</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -9919,46 +9988,46 @@
         <v>486</v>
       </c>
       <c r="D30" s="7">
-        <v>519974</v>
+        <v>519347</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>641</v>
+        <v>659</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>642</v>
+        <v>660</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>643</v>
+        <v>661</v>
       </c>
       <c r="H30" s="7">
         <v>759</v>
       </c>
       <c r="I30" s="7">
-        <v>562347</v>
+        <v>523366</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>644</v>
+        <v>662</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>645</v>
+        <v>663</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>646</v>
+        <v>664</v>
       </c>
       <c r="M30" s="7">
         <v>1245</v>
       </c>
       <c r="N30" s="7">
-        <v>1082321</v>
+        <v>1042713</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>647</v>
+        <v>665</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -9970,7 +10039,7 @@
         <v>599</v>
       </c>
       <c r="D31" s="7">
-        <v>627754</v>
+        <v>624279</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>38</v>
@@ -9985,7 +10054,7 @@
         <v>960</v>
       </c>
       <c r="I31" s="7">
-        <v>804203</v>
+        <v>849265</v>
       </c>
       <c r="J31" s="7" t="s">
         <v>38</v>
@@ -10000,7 +10069,7 @@
         <v>1559</v>
       </c>
       <c r="N31" s="7">
-        <v>1431957</v>
+        <v>1473544</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>38</v>
@@ -10023,46 +10092,46 @@
         <v>2</v>
       </c>
       <c r="D32" s="7">
-        <v>2093</v>
+        <v>1823</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>650</v>
+        <v>43</v>
       </c>
       <c r="F32" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>441</v>
+        <v>647</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>3829</v>
+        <v>3235</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>442</v>
+        <v>668</v>
       </c>
       <c r="K32" s="7" t="s">
         <v>154</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>651</v>
+        <v>669</v>
       </c>
       <c r="M32" s="7">
         <v>7</v>
       </c>
       <c r="N32" s="7">
-        <v>5922</v>
+        <v>5058</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>173</v>
+        <v>153</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>154</v>
+        <v>200</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>652</v>
+        <v>670</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -10074,46 +10143,46 @@
         <v>65</v>
       </c>
       <c r="D33" s="7">
-        <v>63661</v>
+        <v>53746</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>21</v>
+        <v>671</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>653</v>
+        <v>672</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>654</v>
+        <v>673</v>
       </c>
       <c r="H33" s="7">
         <v>114</v>
       </c>
       <c r="I33" s="7">
-        <v>84793</v>
+        <v>69491</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>655</v>
+        <v>495</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>656</v>
+        <v>674</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>657</v>
+        <v>181</v>
       </c>
       <c r="M33" s="7">
         <v>179</v>
       </c>
       <c r="N33" s="7">
-        <v>148454</v>
+        <v>123237</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>94</v>
+        <v>675</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>248</v>
+        <v>676</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>658</v>
+        <v>677</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -10125,46 +10194,46 @@
         <v>695</v>
       </c>
       <c r="D34" s="7">
-        <v>793674</v>
+        <v>873151</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>659</v>
+        <v>678</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>660</v>
+        <v>598</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>661</v>
+        <v>679</v>
       </c>
       <c r="H34" s="7">
         <v>943</v>
       </c>
       <c r="I34" s="7">
-        <v>779813</v>
+        <v>645004</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>384</v>
+        <v>285</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>662</v>
+        <v>680</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>663</v>
+        <v>681</v>
       </c>
       <c r="M34" s="7">
         <v>1638</v>
       </c>
       <c r="N34" s="7">
-        <v>1573486</v>
+        <v>1518157</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>664</v>
+        <v>682</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>665</v>
+        <v>683</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>666</v>
+        <v>684</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -10176,7 +10245,7 @@
         <v>762</v>
       </c>
       <c r="D35" s="7">
-        <v>859428</v>
+        <v>928720</v>
       </c>
       <c r="E35" s="7" t="s">
         <v>38</v>
@@ -10191,7 +10260,7 @@
         <v>1062</v>
       </c>
       <c r="I35" s="7">
-        <v>868434</v>
+        <v>717731</v>
       </c>
       <c r="J35" s="7" t="s">
         <v>38</v>
@@ -10206,7 +10275,7 @@
         <v>1824</v>
       </c>
       <c r="N35" s="7">
-        <v>1727862</v>
+        <v>1646452</v>
       </c>
       <c r="O35" s="7" t="s">
         <v>38</v>
@@ -10229,46 +10298,46 @@
         <v>22</v>
       </c>
       <c r="D36" s="7">
-        <v>23764</v>
+        <v>22724</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>558</v>
+        <v>685</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>667</v>
+        <v>239</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>668</v>
+        <v>686</v>
       </c>
       <c r="H36" s="7">
         <v>34</v>
       </c>
       <c r="I36" s="7">
-        <v>18259</v>
+        <v>16593</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>670</v>
+        <v>153</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>367</v>
+        <v>685</v>
       </c>
       <c r="M36" s="7">
         <v>56</v>
       </c>
       <c r="N36" s="7">
-        <v>42023</v>
+        <v>39317</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>407</v>
+        <v>16</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>671</v>
+        <v>176</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>84</v>
+        <v>516</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -10280,46 +10349,46 @@
         <v>512</v>
       </c>
       <c r="D37" s="7">
-        <v>461129</v>
+        <v>442206</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>672</v>
+        <v>687</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>261</v>
+        <v>160</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>673</v>
+        <v>688</v>
       </c>
       <c r="H37" s="7">
         <v>844</v>
       </c>
       <c r="I37" s="7">
-        <v>637205</v>
+        <v>686628</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>674</v>
+        <v>689</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>675</v>
+        <v>444</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>676</v>
+        <v>690</v>
       </c>
       <c r="M37" s="7">
         <v>1356</v>
       </c>
       <c r="N37" s="7">
-        <v>1098334</v>
+        <v>1128833</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>678</v>
+        <v>692</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>679</v>
+        <v>693</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -10331,46 +10400,46 @@
         <v>2842</v>
       </c>
       <c r="D38" s="7">
-        <v>2900335</v>
+        <v>2994887</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>680</v>
+        <v>694</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>682</v>
+        <v>696</v>
       </c>
       <c r="H38" s="7">
         <v>4489</v>
       </c>
       <c r="I38" s="7">
-        <v>3180117</v>
+        <v>3009059</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>683</v>
+        <v>697</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>684</v>
+        <v>698</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>680</v>
+        <v>699</v>
       </c>
       <c r="M38" s="7">
         <v>7331</v>
       </c>
       <c r="N38" s="7">
-        <v>6080452</v>
+        <v>6003946</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>686</v>
+        <v>701</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>687</v>
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -10382,7 +10451,7 @@
         <v>3376</v>
       </c>
       <c r="D39" s="7">
-        <v>3385228</v>
+        <v>3459817</v>
       </c>
       <c r="E39" s="7" t="s">
         <v>38</v>
@@ -10397,7 +10466,7 @@
         <v>5367</v>
       </c>
       <c r="I39" s="7">
-        <v>3835581</v>
+        <v>3712280</v>
       </c>
       <c r="J39" s="7" t="s">
         <v>38</v>
@@ -10412,7 +10481,7 @@
         <v>8743</v>
       </c>
       <c r="N39" s="7">
-        <v>7220809</v>
+        <v>7172097</v>
       </c>
       <c r="O39" s="7" t="s">
         <v>38</v>
